--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +375,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,21 +681,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -705,7 +716,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -713,20 +724,20 @@
       <c r="C2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -740,12 +751,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -755,409 +766,409 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="15"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="15"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -1181,44 +1192,61 @@
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="D61" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="15" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="15"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1233,14 +1261,6 @@
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,7 +1274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,7 +1287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,13 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -756,8 +763,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -771,8 +778,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -781,8 +788,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -793,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -805,88 +812,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -895,8 +902,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -907,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -919,8 +926,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -931,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -943,324 +950,332 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="9"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="2"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
+      <c r="C60" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="D61" s="13" t="s">
+      <c r="B62" s="2"/>
+      <c r="D62" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-    </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -261,8 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,13 +371,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +469,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -504,7 +503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -695,7 +693,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -728,19 +726,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -751,13 +749,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -766,449 +764,449 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1217,36 +1215,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1261,6 +1251,14 @@
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,12 +1267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,12 +1280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1153,18 +1157,23 @@
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
+      <c r="D54" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -1236,7 +1245,7 @@
       <c r="C64" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1251,6 +1260,7 @@
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C9:C21"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -375,9 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,6 +382,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +763,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +778,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +788,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +812,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +902,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +926,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -938,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -950,26 +950,26 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C29" s="18"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
@@ -978,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1010,10 +1010,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1022,16 +1022,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -1042,10 +1042,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1054,16 +1054,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1074,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1088,22 +1088,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1114,10 +1114,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1126,40 +1126,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1190,10 +1190,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1204,15 +1204,15 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
@@ -1241,7 +1241,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1250,10 +1250,18 @@
         <v>63</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="16"/>
+      <c r="C65" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D4:D7"/>
@@ -1268,14 +1276,6 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -375,16 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,7 +691,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +763,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +778,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +788,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +812,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +902,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +926,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -938,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -950,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="18"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="18"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -990,16 +990,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1010,10 +1010,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1022,16 +1022,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -1042,10 +1042,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1054,16 +1054,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1074,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1088,22 +1088,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1114,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -1126,7 +1126,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="18"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="18"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="18"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="18"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,18 +1170,23 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
+      <c r="D55" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1190,10 +1195,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1204,15 +1209,15 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1221,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="18"/>
+      <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
@@ -1241,7 +1246,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1250,18 +1255,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C35:C37"/>
+  <mergeCells count="23">
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D4:D7"/>
@@ -1276,6 +1273,15 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -251,10 +251,6 @@
   </si>
   <si>
     <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,22 +365,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,7 +721,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -744,10 +737,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +756,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +771,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +781,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -800,10 +793,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +805,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +895,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -914,10 +907,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +919,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -938,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -950,24 +943,24 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -978,10 +971,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -990,16 +983,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1010,10 +1003,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1022,16 +1015,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -1042,10 +1035,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1054,16 +1047,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1074,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1088,22 +1081,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1114,10 +1107,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1126,40 +1119,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1170,7 +1163,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1179,14 +1172,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1195,10 +1188,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1209,16 +1202,19 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="17" t="s">
         <v>60</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,16 +1222,15 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="D62" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -1246,7 +1241,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1255,10 +1250,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="16"/>
+      <c r="C65" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D4:D7"/>
@@ -1274,14 +1278,6 @@
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -261,8 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,13 +371,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +469,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -504,7 +503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,14 +678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -695,7 +693,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -728,19 +726,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -751,13 +749,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -766,422 +764,422 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C24" s="15"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="15"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="17"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="12"/>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="15"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="15"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="15"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="15"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -1205,38 +1203,38 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="17"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="14"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2"/>
       <c r="D62" s="14"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1254,6 +1252,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C53"/>
     <mergeCell ref="D60:D62"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C64:C65"/>
@@ -1270,14 +1276,6 @@
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D9:D21"/>
     <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D55:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,12 +1284,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1299,12 +1297,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>공지사항 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,16 +376,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="D60" sqref="D60:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,10 +748,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -756,8 +767,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -771,8 +782,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -781,8 +792,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -793,10 +804,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -805,88 +816,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -895,8 +906,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -907,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -919,8 +930,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -931,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -943,24 +954,24 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -971,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -983,16 +994,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1003,10 +1014,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1015,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -1035,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1047,16 +1058,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1067,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1081,22 +1092,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1107,10 +1118,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1119,40 +1130,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1163,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1172,14 +1183,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1188,10 +1199,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1202,18 +1213,18 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1222,41 +1233,65 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="D62" s="14"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="14" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="14"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D60:D64"/>
     <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C23:C24"/>
@@ -1270,14 +1305,6 @@
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D9:D21"/>
     <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D55:D57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -379,16 +379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,10 +748,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -767,8 +767,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -782,8 +782,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -792,8 +792,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -804,10 +804,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -816,88 +816,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -906,8 +906,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
@@ -918,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -930,8 +930,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -942,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -954,24 +954,24 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -994,16 +994,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -1014,10 +1014,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1026,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -1046,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1058,16 +1058,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -1078,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1092,22 +1092,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
@@ -1118,10 +1118,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1130,40 +1130,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1174,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1183,14 +1183,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1199,10 +1199,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1213,18 +1213,18 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1233,8 +1233,8 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
@@ -1242,7 +1242,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -1250,14 +1250,14 @@
         <v>68</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
@@ -1268,7 +1268,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1277,20 +1277,17 @@
         <v>63</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="15"/>
+      <c r="C67" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D26:D29"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
@@ -1298,13 +1295,16 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -269,8 +269,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,16 +385,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +489,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -515,7 +523,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,14 +698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -706,7 +713,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -727,7 +734,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -739,19 +746,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -762,13 +769,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -777,422 +784,422 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+      <c r="C24" s="18"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="18"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="18"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="12"/>
       <c r="B47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="18"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="18"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="18"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="18"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="18"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -1216,27 +1223,27 @@
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>67</v>
@@ -1244,7 +1251,7 @@
       <c r="C62" s="14"/>
       <c r="D62" s="16"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
@@ -1252,18 +1259,18 @@
       <c r="C63" s="14"/>
       <c r="D63" s="16"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2"/>
       <c r="D64" s="16"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
@@ -1281,13 +1288,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
@@ -1298,13 +1305,13 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,12 +1320,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1326,12 +1333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,13 +379,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +693,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -739,10 +746,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -758,8 +765,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -773,8 +780,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -783,8 +790,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9"/>
@@ -795,10 +802,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -807,88 +814,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
@@ -897,8 +904,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
@@ -909,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -921,8 +928,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9"/>
@@ -933,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -945,16 +952,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9"/>
@@ -965,10 +972,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -977,16 +984,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9"/>
@@ -997,10 +1004,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1009,16 +1016,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9"/>
@@ -1029,10 +1036,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1041,16 +1048,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9"/>
@@ -1061,10 +1068,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1075,22 +1082,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="12"/>
@@ -1101,10 +1108,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1113,40 +1120,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="9"/>
@@ -1157,7 +1164,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1166,14 +1173,14 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -1182,10 +1189,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1196,15 +1203,15 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1213,7 +1220,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
@@ -1233,8 +1240,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>59</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1242,10 +1252,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1261,14 +1281,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,19 +389,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -755,10 +759,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -774,8 +778,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -789,8 +793,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -799,8 +803,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9"/>
@@ -811,10 +815,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -823,88 +827,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
@@ -913,8 +917,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
@@ -925,10 +929,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -937,8 +941,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9"/>
@@ -949,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -961,24 +965,24 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9"/>
@@ -989,10 +993,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1001,16 +1005,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9"/>
@@ -1021,10 +1025,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1033,16 +1037,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9"/>
@@ -1053,10 +1057,10 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1065,16 +1069,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9"/>
@@ -1085,10 +1089,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1099,22 +1103,22 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="12"/>
@@ -1125,10 +1129,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1137,40 +1141,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="9"/>
@@ -1181,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1190,14 +1194,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="18"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="18"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
@@ -1206,10 +1210,10 @@
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1220,18 +1224,18 @@
       <c r="B59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1240,8 +1244,8 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2"/>
@@ -1249,7 +1253,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2"/>
@@ -1257,44 +1261,49 @@
         <v>68</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="16"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
+  <mergeCells count="25">
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D26:D29"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
@@ -1305,13 +1314,13 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,14 +375,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,6 +476,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -507,6 +511,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -697,7 +702,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -718,7 +723,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -730,19 +735,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -753,13 +758,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -768,454 +773,454 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="17"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="17"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="C44" s="17"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="C45" s="17"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="C48" s="17"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="C49" s="17"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="17"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51" s="17"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="C52" s="17"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1224,28 +1229,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1261,14 +1274,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,12 +1282,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1290,12 +1295,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -379,16 +379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -748,10 +748,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -767,8 +767,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -782,8 +782,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -792,8 +792,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
@@ -804,7 +804,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -816,7 +816,7 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,7 +824,7 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -856,7 +856,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,7 +888,7 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
@@ -918,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -930,8 +930,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -942,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -954,24 +954,24 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -994,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -1026,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -1058,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="15"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -1092,7 +1092,7 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,13 +1100,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,10 +1118,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1130,40 +1130,40 @@
         <v>42</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -1174,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1183,14 +1183,14 @@
         <v>47</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -1221,10 +1221,10 @@
         <v>26</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1233,8 +1233,8 @@
         <v>27</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
@@ -1242,7 +1242,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -1250,14 +1250,14 @@
         <v>68</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
@@ -1281,13 +1281,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D9:D21"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D48:D53"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C9:C21"/>
     <mergeCell ref="C4:C7"/>
@@ -1298,13 +1298,13 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D9:D21"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -259,6 +259,14 @@
   </si>
   <si>
     <t>은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,20 +380,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -744,10 +755,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +774,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +789,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +799,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -800,10 +811,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +823,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +913,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -914,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +937,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -938,10 +949,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -950,16 +961,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -970,10 +981,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -982,16 +993,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1002,10 +1013,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1014,16 +1025,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -1034,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1046,16 +1057,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -1066,10 +1077,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1080,22 +1091,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
@@ -1106,10 +1117,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1118,40 +1129,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -1162,7 +1173,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1171,14 +1182,14 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -1209,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1218,47 +1229,56 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="D61" s="13" t="s">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+    <row r="62" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="15" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
+  <mergeCells count="24">
+    <mergeCell ref="D61:D63"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1274,6 +1294,14 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -267,14 +267,18 @@
   </si>
   <si>
     <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,7 +491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -522,7 +525,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,14 +700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -713,7 +715,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -734,7 +736,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -746,11 +748,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -769,7 +771,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -784,7 +786,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -792,7 +794,7 @@
       <c r="C6" s="15"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,11 +804,11 @@
       <c r="C7" s="15"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -818,7 +820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -826,7 +828,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -834,7 +836,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -842,7 +844,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -850,7 +852,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -858,7 +860,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -866,7 +868,7 @@
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -874,7 +876,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -882,7 +884,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -890,7 +892,7 @@
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -898,7 +900,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -906,7 +908,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -916,11 +918,11 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -932,7 +934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -940,11 +942,11 @@
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -956,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -964,7 +966,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -972,11 +974,11 @@
       <c r="C28" s="15"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -988,7 +990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -996,7 +998,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1004,11 +1006,11 @@
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1030,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -1036,11 +1038,11 @@
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1062,7 @@
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1068,11 +1070,11 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1096,7 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1102,17 +1104,17 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1134,7 @@
       <c r="C48" s="15"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
@@ -1140,7 +1142,7 @@
       <c r="C49" s="15"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1150,7 @@
       <c r="C50" s="15"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1158,7 @@
       <c r="C51" s="15"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -1164,11 +1166,11 @@
       <c r="C52" s="15"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1177,21 +1179,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -1215,7 +1217,7 @@
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
@@ -1224,14 +1226,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="14" customFormat="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -1241,7 +1243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="14" customFormat="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -1249,18 +1251,18 @@
       <c r="C62" s="13"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="2"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -1268,21 +1270,29 @@
       <c r="C65" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="16"/>
+      <c r="D66" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D57:D58"/>
+  <mergeCells count="25">
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D9:D21"/>
     <mergeCell ref="D26:D28"/>
@@ -1294,14 +1304,11 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D57:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,12 +1317,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,12 +1330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -375,13 +375,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +763,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +778,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +788,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +812,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +902,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +926,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -938,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -950,16 +950,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -970,10 +970,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -982,16 +982,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1002,10 +1002,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1014,16 +1014,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -1034,10 +1034,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1046,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -1066,10 +1066,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1080,22 +1080,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
@@ -1106,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1118,40 +1118,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1171,14 +1171,14 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -1190,7 +1190,7 @@
       <c r="C57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1202,14 +1202,14 @@
         <v>52</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
+      <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -1238,7 +1238,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1247,18 +1247,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1274,6 +1266,14 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -375,13 +375,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -691,7 +691,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,10 +744,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -763,8 +763,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -778,8 +778,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -788,8 +788,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -800,10 +800,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -812,88 +812,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -902,8 +902,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -926,8 +926,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -938,10 +938,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -950,16 +950,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -970,10 +970,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -982,16 +982,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -1002,10 +1002,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1014,16 +1014,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -1034,10 +1034,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1046,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
@@ -1066,10 +1066,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1080,22 +1080,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
@@ -1106,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1118,40 +1118,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1171,14 +1171,14 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -1190,7 +1190,7 @@
       <c r="C57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1202,14 +1202,14 @@
         <v>52</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="15"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -1238,7 +1238,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1247,10 +1247,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1266,14 +1274,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ToDo 관리.xlsx
+++ b/doc/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,17 +381,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,7 +519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,14 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -702,7 +709,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -723,7 +730,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -735,19 +742,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -758,13 +765,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -773,414 +780,414 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="15"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="15"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="15"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="15"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="15"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="15"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
@@ -1190,11 +1197,11 @@
       <c r="C57" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -1202,25 +1209,25 @@
         <v>52</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1229,36 +1236,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1274,6 +1273,14 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,12 +1289,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1295,12 +1302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
